--- a/seasonal/exposure.xlsx
+++ b/seasonal/exposure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="441">
   <si>
     <t xml:space="preserve">Country name</t>
   </si>
@@ -1119,9 +1119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cyclone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96184</t>
   </si>
   <si>
     <t xml:space="preserve">e</t>
@@ -1364,7 +1361,7 @@
     <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * \-??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1400,22 +1397,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1480,7 +1461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1521,11 +1502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,15 +1514,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,11 +1609,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ391"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A331" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D352" activeCellId="0" sqref="D352"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A231" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D254" activeCellId="0" sqref="D254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.56"/>
@@ -8901,7 +8878,7 @@
       <c r="C149" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="10" t="n">
+      <c r="D149" s="8" t="n">
         <v>40455351</v>
       </c>
       <c r="E149" s="6" t="n">
@@ -10236,7 +10213,7 @@
       <c r="C176" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D176" s="10" t="n">
+      <c r="D176" s="8" t="n">
         <v>154367228</v>
       </c>
       <c r="E176" s="6" t="n">
@@ -10675,7 +10652,7 @@
       <c r="C185" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D185" s="10" t="n">
+      <c r="D185" s="8" t="n">
         <v>3609391</v>
       </c>
       <c r="E185" s="6" t="n">
@@ -13836,9 +13813,7 @@
       <c r="C250" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D250" s="9" t="n">
-        <v>406261</v>
-      </c>
+      <c r="D250" s="9"/>
       <c r="E250" s="6" t="n">
         <v>1</v>
       </c>
@@ -13886,8 +13861,8 @@
       <c r="C251" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D251" s="9" t="s">
-        <v>366</v>
+      <c r="D251" s="9" t="n">
+        <v>96184</v>
       </c>
       <c r="E251" s="6" t="n">
         <v>0</v>
@@ -17329,7 +17304,7 @@
       <c r="C322" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D322" s="10"/>
+      <c r="D322" s="8"/>
       <c r="E322" s="6" t="n">
         <v>0</v>
       </c>
@@ -17615,7 +17590,7 @@
       <c r="C328" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D328" s="11" t="n">
+      <c r="D328" s="10" t="n">
         <v>268803256</v>
       </c>
       <c r="E328" s="6" t="n">
@@ -18674,13 +18649,13 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F377" s="12" t="s">
-        <v>367</v>
+      <c r="F377" s="11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -19329,13 +19304,13 @@
       <selection pane="topLeft" activeCell="D166" activeCellId="0" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="13"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
@@ -19361,11 +19336,11 @@
       <c r="C2" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="12" t="n">
         <v>154367228</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="n">
@@ -19415,11 +19390,11 @@
       <c r="C3" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>32360236</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="n">
@@ -19469,9 +19444,9 @@
       <c r="C4" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="n">
@@ -19521,11 +19496,11 @@
       <c r="C5" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>40455351</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="n">
@@ -19575,11 +19550,11 @@
       <c r="C6" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>470327</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="n">
@@ -19629,11 +19604,11 @@
       <c r="C7" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="13" t="n">
         <v>2259639</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6" t="n">
@@ -19683,11 +19658,11 @@
       <c r="C8" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="13" t="n">
         <v>45597</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="n">
@@ -19737,11 +19712,11 @@
       <c r="C9" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="13" t="n">
         <v>1004519</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="n">
@@ -19791,11 +19766,11 @@
       <c r="C10" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>3609391</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="n">
@@ -19845,11 +19820,11 @@
       <c r="C11" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="13" t="n">
         <v>2747479</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="n">
@@ -19899,11 +19874,11 @@
       <c r="C12" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="13" t="n">
         <v>1077580</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="n">
@@ -19953,11 +19928,11 @@
       <c r="C13" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="13" t="n">
         <v>1443964</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="n">
@@ -20007,11 +19982,11 @@
       <c r="C14" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="13" t="n">
         <v>620319</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="n">
@@ -20061,11 +20036,11 @@
       <c r="C15" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="13" t="n">
         <v>96184</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="n">
@@ -20115,11 +20090,11 @@
       <c r="C16" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="n">
@@ -20169,11 +20144,11 @@
       <c r="C17" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>370</v>
+      <c r="D17" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6" t="n">
@@ -20223,11 +20198,11 @@
       <c r="C18" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="13" t="n">
         <v>23328</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="n">
@@ -20277,11 +20252,11 @@
       <c r="C19" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="13" t="n">
         <v>28566</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="6" t="n">
@@ -20323,33 +20298,33 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
@@ -20361,279 +20336,279 @@
       <c r="C21" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="C22" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="13" t="n">
         <v>913724</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="C23" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="C24" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="13" t="n">
         <v>182164</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="C25" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>30744</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="C26" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>3785</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="C27" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>712</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="C28" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="C29" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -20645,27 +20620,27 @@
       <c r="C30" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -20677,25 +20652,25 @@
       <c r="C31" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -20707,25 +20682,25 @@
       <c r="C32" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -20737,25 +20712,25 @@
       <c r="C33" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
@@ -20767,25 +20742,25 @@
       <c r="C34" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -20797,25 +20772,25 @@
       <c r="C35" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
@@ -20827,25 +20802,25 @@
       <c r="C36" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
@@ -20857,25 +20832,25 @@
       <c r="C37" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="14" t="n">
+      <c r="D37" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
@@ -20887,25 +20862,25 @@
       <c r="C38" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="13" t="n">
         <v>350348</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -20917,55 +20892,55 @@
       <c r="C39" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>391</v>
+      <c r="D39" s="14" t="s">
+        <v>390</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="C40" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
@@ -20977,25 +20952,25 @@
       <c r="C41" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D41" s="14" t="n">
+      <c r="D41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
@@ -21007,25 +20982,25 @@
       <c r="C42" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
@@ -21037,25 +21012,25 @@
       <c r="C43" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D43" s="14" t="n">
+      <c r="D43" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
@@ -21067,25 +21042,25 @@
       <c r="C44" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D44" s="14" t="n">
+      <c r="D44" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
@@ -21097,25 +21072,25 @@
       <c r="C45" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="14" t="n">
+      <c r="D45" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
@@ -21127,55 +21102,55 @@
       <c r="C46" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D46" s="14" t="n">
+      <c r="D46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="C47" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D47" s="14" t="n">
+      <c r="D47" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
@@ -21187,25 +21162,25 @@
       <c r="C48" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D48" s="14" t="n">
+      <c r="D48" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
@@ -21217,23 +21192,23 @@
       <c r="C49" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
@@ -21245,25 +21220,25 @@
       <c r="C50" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D50" s="14" t="n">
+      <c r="D50" s="13" t="n">
         <v>56770</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
@@ -21275,229 +21250,229 @@
       <c r="C51" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D51" s="14" t="n">
+      <c r="D51" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="C52" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D52" s="14" t="n">
+      <c r="D52" s="13" t="n">
         <v>24596</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="C53" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D53" s="14" t="n">
+      <c r="D53" s="13" t="n">
         <v>499072</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="C54" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="C55" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D55" s="14" t="n">
+      <c r="D55" s="13" t="n">
         <v>5120</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="C56" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D56" s="14" t="n">
+      <c r="D56" s="13" t="n">
         <v>449209</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="C57" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="C58" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
@@ -21509,25 +21484,25 @@
       <c r="C59" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D59" s="14" t="n">
+      <c r="D59" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
@@ -21539,25 +21514,25 @@
       <c r="C60" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
@@ -21569,27 +21544,27 @@
       <c r="C61" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D61" s="14" t="n">
+      <c r="D61" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
@@ -21601,27 +21576,27 @@
       <c r="C62" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="14" t="n">
+      <c r="D62" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
@@ -21633,27 +21608,27 @@
       <c r="C63" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D63" s="14" t="n">
+      <c r="D63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
@@ -21665,27 +21640,27 @@
       <c r="C64" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D64" s="14" t="n">
+      <c r="D64" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
@@ -21697,27 +21672,27 @@
       <c r="C65" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D65" s="14" t="n">
+      <c r="D65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
@@ -21729,27 +21704,27 @@
       <c r="C66" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D66" s="14" t="n">
+      <c r="D66" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -21761,25 +21736,25 @@
       <c r="C67" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="14" t="n">
+      <c r="D67" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
@@ -21791,55 +21766,55 @@
       <c r="C68" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="14" t="n">
+      <c r="D68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="C69" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D69" s="14" t="n">
+      <c r="D69" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
@@ -21851,27 +21826,27 @@
       <c r="C70" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D70" s="14" t="n">
+      <c r="D70" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
@@ -21883,27 +21858,27 @@
       <c r="C71" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D71" s="14" t="n">
+      <c r="D71" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
@@ -21915,27 +21890,27 @@
       <c r="C72" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D72" s="14" t="n">
+      <c r="D72" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
@@ -21947,91 +21922,91 @@
       <c r="C73" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="14" t="n">
+      <c r="D73" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="C74" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D74" s="14" t="n">
+      <c r="D74" s="13" t="n">
         <v>62565</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="C75" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D75" s="14" t="n">
+      <c r="D75" s="13" t="n">
         <v>1120390</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
@@ -22043,27 +22018,27 @@
       <c r="C76" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D76" s="14" t="n">
+      <c r="D76" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -22075,25 +22050,25 @@
       <c r="C77" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
@@ -22105,27 +22080,27 @@
       <c r="C78" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D78" s="14" t="n">
+      <c r="D78" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
@@ -22137,27 +22112,27 @@
       <c r="C79" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D79" s="14" t="n">
+      <c r="D79" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
@@ -22169,27 +22144,27 @@
       <c r="C80" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D80" s="14" t="n">
+      <c r="D80" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
@@ -22201,25 +22176,25 @@
       <c r="C81" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
@@ -22231,27 +22206,27 @@
       <c r="C82" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="14" t="n">
+      <c r="D82" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
@@ -22263,27 +22238,27 @@
       <c r="C83" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D83" s="14" t="n">
+      <c r="D83" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
@@ -22295,27 +22270,27 @@
       <c r="C84" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D84" s="14" t="n">
+      <c r="D84" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
@@ -22327,27 +22302,27 @@
       <c r="C85" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D85" s="14" t="n">
+      <c r="D85" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
@@ -22359,27 +22334,27 @@
       <c r="C86" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D86" s="14" t="n">
+      <c r="D86" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
@@ -22391,59 +22366,59 @@
       <c r="C87" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D87" s="14" t="n">
+      <c r="D87" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="C88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D88" s="14" t="n">
+      <c r="D88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
@@ -22455,27 +22430,27 @@
       <c r="C89" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D89" s="14" t="n">
+      <c r="D89" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
@@ -22487,27 +22462,27 @@
       <c r="C90" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D90" s="14" t="n">
+      <c r="D90" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
@@ -22519,27 +22494,27 @@
       <c r="C91" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D91" s="14" t="n">
+      <c r="D91" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
@@ -22551,27 +22526,27 @@
       <c r="C92" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="14" t="n">
+      <c r="D92" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
@@ -22583,27 +22558,27 @@
       <c r="C93" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D93" s="14" t="n">
+      <c r="D93" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
@@ -22615,59 +22590,59 @@
       <c r="C94" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D94" s="14" t="n">
+      <c r="D94" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="C95" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D95" s="14" t="n">
+      <c r="D95" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
@@ -22679,27 +22654,27 @@
       <c r="C96" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D96" s="14" t="n">
+      <c r="D96" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
@@ -22711,47 +22686,47 @@
       <c r="C97" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D97" s="14" t="n">
+      <c r="D97" s="13" t="n">
         <v>4550774</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" s="16" t="n">
+      <c r="G97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="15" t="n">
         <v>67.8593894699292</v>
       </c>
-      <c r="N97" s="16" t="n">
+      <c r="N97" s="15" t="n">
         <v>162.353589306806</v>
       </c>
-      <c r="O97" s="16" t="n">
+      <c r="O97" s="15" t="n">
         <v>50293.986505638</v>
       </c>
-      <c r="P97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" s="16" t="n">
+      <c r="P97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="15" t="n">
         <v>16.9648473674823</v>
       </c>
     </row>
@@ -22765,47 +22740,47 @@
       <c r="C98" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D98" s="14" t="n">
+      <c r="D98" s="13" t="n">
         <v>483492</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F98" s="5"/>
-      <c r="G98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="16" t="n">
+      <c r="G98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" s="15" t="n">
         <v>15638.1978960878</v>
       </c>
-      <c r="O98" s="16" t="n">
+      <c r="O98" s="15" t="n">
         <v>4176.55037285824</v>
       </c>
-      <c r="P98" s="16" t="n">
+      <c r="P98" s="15" t="n">
         <v>3391.35890276089</v>
       </c>
-      <c r="Q98" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" s="16" t="n">
+      <c r="Q98" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22819,47 +22794,47 @@
       <c r="C99" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="14" t="n">
+      <c r="D99" s="13" t="n">
         <v>4078176</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F99" s="5"/>
-      <c r="G99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="16" t="n">
+      <c r="G99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="15" t="n">
         <v>5139.04898864806</v>
       </c>
-      <c r="O99" s="16" t="n">
+      <c r="O99" s="15" t="n">
         <v>6145.12982164142</v>
       </c>
-      <c r="P99" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="16" t="n">
+      <c r="P99" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="15" t="n">
         <v>1934.77083267955</v>
       </c>
-      <c r="R99" s="16" t="n">
+      <c r="R99" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22873,47 +22848,47 @@
       <c r="C100" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D100" s="14" t="n">
+      <c r="D100" s="13" t="n">
         <v>406261</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F100" s="5"/>
-      <c r="G100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" s="16" t="n">
+      <c r="G100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="15" t="n">
         <v>2728.18966736379</v>
       </c>
-      <c r="J100" s="16" t="n">
+      <c r="J100" s="15" t="n">
         <v>954.866383577328</v>
       </c>
-      <c r="K100" s="16" t="n">
+      <c r="K100" s="15" t="n">
         <v>611.11448548949</v>
       </c>
-      <c r="L100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" s="16" t="n">
+      <c r="L100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22927,47 +22902,47 @@
       <c r="C101" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D101" s="14" t="n">
+      <c r="D101" s="13" t="n">
         <v>2913573</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F101" s="5"/>
-      <c r="G101" s="16" t="n">
+      <c r="G101" s="15" t="n">
         <v>3082.70259387069</v>
       </c>
-      <c r="H101" s="16" t="n">
+      <c r="H101" s="15" t="n">
         <v>674.906354551423</v>
       </c>
-      <c r="I101" s="16" t="n">
+      <c r="I101" s="15" t="n">
         <v>167.699021106566</v>
       </c>
-      <c r="J101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" s="16" t="n">
+      <c r="J101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="15" t="n">
         <v>137.694049192891</v>
       </c>
     </row>
@@ -22981,101 +22956,101 @@
       <c r="C102" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D102" s="14" t="n">
+      <c r="D102" s="13" t="n">
         <v>29676</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="G102" s="16" t="n">
+      <c r="G102" s="15" t="n">
         <v>6.05986904626169</v>
       </c>
-      <c r="H102" s="16" t="n">
+      <c r="H102" s="15" t="n">
         <v>1.58850936164141</v>
       </c>
-      <c r="I102" s="16" t="n">
+      <c r="I102" s="15" t="n">
         <v>93.5455512966611</v>
       </c>
-      <c r="J102" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="16" t="n">
+      <c r="J102" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="15" t="n">
         <v>3530.02080364759</v>
       </c>
-      <c r="L102" s="16" t="n">
+      <c r="L102" s="15" t="n">
         <v>8.82505200911897</v>
       </c>
-      <c r="M102" s="16" t="n">
+      <c r="M102" s="15" t="n">
         <v>23.5334720243173</v>
       </c>
-      <c r="N102" s="16" t="n">
+      <c r="N102" s="15" t="n">
         <v>11.7667360121586</v>
       </c>
-      <c r="O102" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" s="16" t="n">
+      <c r="O102" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="15" t="n">
         <v>64.7170480668725</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="C103" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D103" s="14" t="n">
+      <c r="D103" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F103" s="5"/>
-      <c r="G103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="16" t="n">
+      <c r="G103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="15" t="n">
         <v>66.623484269313</v>
       </c>
-      <c r="O103" s="16" t="n">
+      <c r="O103" s="15" t="n">
         <v>3376.60702207679</v>
       </c>
-      <c r="P103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" s="16" t="n">
+      <c r="P103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23089,47 +23064,47 @@
       <c r="C104" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D104" s="14" t="n">
+      <c r="D104" s="13" t="n">
         <v>149795</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F104" s="5"/>
-      <c r="G104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="16" t="n">
+      <c r="G104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15" t="n">
         <v>493.734796863404</v>
       </c>
-      <c r="O104" s="16" t="n">
+      <c r="O104" s="15" t="n">
         <v>2105.0520116446</v>
       </c>
-      <c r="P104" s="16" t="n">
+      <c r="P104" s="15" t="n">
         <v>179.0352460868</v>
       </c>
-      <c r="Q104" s="16" t="n">
+      <c r="Q104" s="15" t="n">
         <v>320.251031275419</v>
       </c>
-      <c r="R104" s="16" t="n">
+      <c r="R104" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23143,47 +23118,47 @@
       <c r="C105" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D105" s="14" t="n">
+      <c r="D105" s="13" t="n">
         <v>221237</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F105" s="5"/>
-      <c r="G105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" s="16" t="n">
+      <c r="G105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="15" t="n">
         <v>26.5768124981829</v>
       </c>
-      <c r="M105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="16" t="n">
+      <c r="M105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="15" t="n">
         <v>2214.73437484857</v>
       </c>
-      <c r="O105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" s="16" t="n">
+      <c r="O105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23197,213 +23172,213 @@
       <c r="C106" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D106" s="14" t="n">
+      <c r="D106" s="13" t="n">
         <v>27738</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F106" s="5"/>
-      <c r="G106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" s="16" t="n">
+      <c r="G106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="15" t="n">
         <v>64.6421070079991</v>
       </c>
-      <c r="O106" s="16" t="n">
+      <c r="O106" s="15" t="n">
         <v>2027.3336724769</v>
       </c>
-      <c r="P106" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="16" t="n">
+      <c r="P106" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="15" t="n">
         <v>15.8708212841151</v>
       </c>
-      <c r="R106" s="16" t="n">
+      <c r="R106" s="15" t="n">
         <v>0.906904073378007</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="C107" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D107" s="14" t="n">
+      <c r="D107" s="13" t="n">
         <v>168707</v>
       </c>
       <c r="E107" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" s="16" t="n">
+      <c r="G107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15" t="n">
         <v>1029.3430664545</v>
       </c>
-      <c r="I107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="16" t="n">
+      <c r="I107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15" t="n">
         <v>2.56045379186771</v>
       </c>
-      <c r="K107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="16" t="n">
+      <c r="K107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="15" t="n">
         <v>39.2196493516244</v>
       </c>
-      <c r="R107" s="16" t="n">
+      <c r="R107" s="15" t="n">
         <v>121.926371041319</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="C108" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D108" s="14"/>
+      <c r="D108" s="13"/>
       <c r="E108" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" s="16" t="n">
+      <c r="G108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="15" t="n">
         <v>1155.47178038062</v>
       </c>
-      <c r="I108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R108" s="16" t="n">
+      <c r="I108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="C109" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D109" s="14" t="n">
+      <c r="D109" s="13" t="n">
         <v>143292</v>
       </c>
       <c r="E109" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G109" s="16" t="n">
+      <c r="G109" s="15" t="n">
         <v>87.1773331926344</v>
       </c>
-      <c r="H109" s="16" t="n">
+      <c r="H109" s="15" t="n">
         <v>142.940595321508</v>
       </c>
-      <c r="I109" s="16" t="n">
+      <c r="I109" s="15" t="n">
         <v>813.282697518923</v>
       </c>
-      <c r="J109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R109" s="16" t="n">
+      <c r="J109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" s="15" t="n">
         <v>8.21497674261538</v>
       </c>
     </row>
@@ -23417,99 +23392,99 @@
       <c r="C110" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D110" s="14"/>
+      <c r="D110" s="13"/>
       <c r="E110" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F110" s="5"/>
-      <c r="G110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" s="16" t="n">
+      <c r="G110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="15" t="n">
         <v>15.9966079134694</v>
       </c>
-      <c r="O110" s="16" t="n">
+      <c r="O110" s="15" t="n">
         <v>630.169402651825</v>
       </c>
-      <c r="P110" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="16" t="n">
+      <c r="P110" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="15" t="n">
         <v>48.4745694347558</v>
       </c>
-      <c r="R110" s="16" t="n">
+      <c r="R110" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="C111" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D111" s="14" t="n">
+      <c r="D111" s="13" t="n">
         <v>25556</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" s="16" t="n">
+      <c r="G111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="15" t="n">
         <v>348.547394996151</v>
       </c>
-      <c r="O111" s="16" t="n">
+      <c r="O111" s="15" t="n">
         <v>290.456162496793</v>
       </c>
-      <c r="P111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" s="16" t="n">
+      <c r="P111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23523,47 +23498,47 @@
       <c r="C112" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="14" t="n">
+      <c r="D112" s="13" t="n">
         <v>41960</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" s="16" t="n">
+      <c r="G112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="15" t="n">
         <v>18.4293032789522</v>
       </c>
-      <c r="M112" s="16" t="n">
+      <c r="M112" s="15" t="n">
         <v>430.017076508884</v>
       </c>
-      <c r="N112" s="16" t="n">
+      <c r="N112" s="15" t="n">
         <v>79.8603142087928</v>
       </c>
-      <c r="O112" s="16" t="n">
+      <c r="O112" s="15" t="n">
         <v>3.07155054649203</v>
       </c>
-      <c r="P112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" s="16" t="n">
+      <c r="P112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23577,45 +23552,45 @@
       <c r="C113" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D113" s="14"/>
+      <c r="D113" s="13"/>
       <c r="E113" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113" s="5"/>
-      <c r="G113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" s="16" t="n">
+      <c r="G113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="15" t="n">
         <v>364.245128855314</v>
       </c>
-      <c r="O113" s="16" t="n">
+      <c r="O113" s="15" t="n">
         <v>11.5644602026772</v>
       </c>
-      <c r="P113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" s="16" t="n">
+      <c r="P113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23629,99 +23604,99 @@
       <c r="C114" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="14"/>
+      <c r="D114" s="13"/>
       <c r="E114" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F114" s="5"/>
-      <c r="G114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" s="16" t="n">
+      <c r="G114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="15" t="n">
         <v>291.703484810138</v>
       </c>
-      <c r="J114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="16" t="n">
+      <c r="J114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="15" t="n">
         <v>50.4750081863252</v>
       </c>
-      <c r="R114" s="16" t="n">
+      <c r="R114" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="C115" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="14" t="n">
+      <c r="D115" s="13" t="n">
         <v>880</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="G115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" s="16" t="n">
+      <c r="G115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" s="15" t="n">
         <v>184.234297981494</v>
       </c>
-      <c r="N115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" s="16" t="n">
+      <c r="N115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" s="15" t="n">
         <v>153.528581651245</v>
       </c>
     </row>
@@ -23735,45 +23710,45 @@
       <c r="C116" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D116" s="14"/>
+      <c r="D116" s="13"/>
       <c r="E116" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="16" t="n">
+      <c r="G116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="15" t="n">
         <v>133.237141562531</v>
       </c>
-      <c r="J116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" s="16" t="n">
+      <c r="J116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="15" t="n">
         <v>44.4123805208436</v>
       </c>
-      <c r="L116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N116" s="16" t="n">
+      <c r="L116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" s="15" t="n">
         <v>155.443331822953</v>
       </c>
-      <c r="O116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" s="16" t="n">
+      <c r="O116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23787,45 +23762,45 @@
       <c r="C117" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D117" s="14"/>
+      <c r="D117" s="13"/>
       <c r="E117" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F117" s="5"/>
-      <c r="G117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" s="16" t="n">
+      <c r="G117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="15" t="n">
         <v>202.349901878478</v>
       </c>
-      <c r="I117" s="16" t="n">
+      <c r="I117" s="15" t="n">
         <v>60.7049705635433</v>
       </c>
-      <c r="J117" s="16" t="n">
+      <c r="J117" s="15" t="n">
         <v>46.9451772358068</v>
       </c>
-      <c r="K117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" s="16" t="n">
+      <c r="K117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="15" t="n">
         <v>9.71279529016693</v>
       </c>
-      <c r="N117" s="16" t="n">
+      <c r="N117" s="15" t="n">
         <v>6.47519686011129</v>
       </c>
-      <c r="O117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R117" s="16" t="n">
+      <c r="O117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23839,47 +23814,47 @@
       <c r="C118" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D118" s="14" t="n">
+      <c r="D118" s="13" t="n">
         <v>978</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F118" s="5"/>
-      <c r="G118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" s="16" t="n">
+      <c r="G118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="15" t="n">
         <v>2.60431564896998</v>
       </c>
-      <c r="I118" s="16" t="n">
+      <c r="I118" s="15" t="n">
         <v>68.7365710284811</v>
       </c>
-      <c r="J118" s="16" t="n">
+      <c r="J118" s="15" t="n">
         <v>66.0628069622053</v>
       </c>
-      <c r="K118" s="16" t="n">
+      <c r="K118" s="15" t="n">
         <v>130.215782448499</v>
       </c>
-      <c r="L118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" s="16" t="n">
+      <c r="L118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23893,47 +23868,47 @@
       <c r="C119" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D119" s="14" t="n">
+      <c r="D119" s="13" t="n">
         <v>9576</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" s="16" t="n">
+      <c r="G119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="15" t="n">
         <v>13.6891992419238</v>
       </c>
-      <c r="N119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" s="16" t="n">
+      <c r="N119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="15" t="n">
         <v>246.405586354628</v>
       </c>
-      <c r="P119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" s="16" t="n">
+      <c r="P119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23947,47 +23922,47 @@
       <c r="C120" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D120" s="14" t="n">
+      <c r="D120" s="13" t="n">
         <v>77269</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F120" s="5"/>
-      <c r="G120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" s="16" t="n">
+      <c r="G120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="15" t="n">
         <v>216.126249193003</v>
       </c>
-      <c r="L120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" s="16" t="n">
+      <c r="L120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="15" t="n">
         <v>16.2094686894752</v>
       </c>
-      <c r="P120" s="16" t="n">
+      <c r="P120" s="15" t="n">
         <v>7.1105535984498</v>
       </c>
-      <c r="Q120" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" s="16" t="n">
+      <c r="Q120" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24001,47 +23976,47 @@
       <c r="C121" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D121" s="14" t="n">
+      <c r="D121" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="16" t="n">
+      <c r="G121" s="15" t="n">
         <v>71.655070059615</v>
       </c>
-      <c r="H121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" s="16" t="n">
+      <c r="H121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" s="15" t="n">
         <v>28.1919707642549</v>
       </c>
-      <c r="K121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R121" s="16" t="n">
+      <c r="K121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24055,103 +24030,103 @@
       <c r="C122" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="14" t="n">
+      <c r="D122" s="13" t="n">
         <v>2995</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F122" s="5"/>
-      <c r="G122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" s="16" t="n">
+      <c r="G122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" s="15" t="n">
         <v>0.0257331192437084</v>
       </c>
-      <c r="M122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" s="16" t="n">
+      <c r="M122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" s="15" t="n">
         <v>3.90332007843531</v>
       </c>
-      <c r="Q122" s="16" t="n">
+      <c r="Q122" s="15" t="n">
         <v>1.2750644670306</v>
       </c>
-      <c r="R122" s="16" t="n">
+      <c r="R122" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="14" t="n">
+      <c r="D123" s="13" t="n">
         <v>80</v>
       </c>
       <c r="E123" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P123" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="16" t="n">
+      <c r="G123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="15" t="n">
         <v>5.03334382168152</v>
       </c>
-      <c r="R123" s="16" t="n">
+      <c r="R123" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24165,47 +24140,47 @@
       <c r="C124" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="14" t="n">
+      <c r="D124" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F124" s="5"/>
-      <c r="G124" s="16" t="n">
+      <c r="G124" s="15" t="n">
         <v>0.213342328831448</v>
       </c>
-      <c r="H124" s="16" t="n">
+      <c r="H124" s="15" t="n">
         <v>0.000160427869781763</v>
       </c>
-      <c r="I124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" s="16" t="n">
+      <c r="I124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="15" t="n">
         <v>0.0106951913187842</v>
       </c>
-      <c r="P124" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="16" t="n">
+      <c r="P124" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="15" t="n">
         <v>0.0016310166761146</v>
       </c>
-      <c r="R124" s="16" t="n">
+      <c r="R124" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24219,47 +24194,47 @@
       <c r="C125" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D125" s="14" t="n">
+      <c r="D125" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" s="16" t="n">
+      <c r="G125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" s="15" t="n">
         <v>0.00115871678192676</v>
       </c>
-      <c r="K125" s="16" t="n">
+      <c r="K125" s="15" t="n">
         <v>0.0172545548516618</v>
       </c>
-      <c r="L125" s="16" t="n">
+      <c r="L125" s="15" t="n">
         <v>8.03071036978939E-005</v>
       </c>
-      <c r="M125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P125" s="16" t="n">
+      <c r="M125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" s="15" t="n">
         <v>0.0264095646732217</v>
       </c>
-      <c r="Q125" s="16" t="n">
+      <c r="Q125" s="15" t="n">
         <v>0.00657371005984189</v>
       </c>
-      <c r="R125" s="16" t="n">
+      <c r="R125" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24273,103 +24248,103 @@
       <c r="C126" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D126" s="14" t="n">
+      <c r="D126" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F126" s="5"/>
-      <c r="G126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" s="16" t="n">
+      <c r="G126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="15" t="n">
         <v>0.0275003049920173</v>
       </c>
-      <c r="L126" s="16" t="n">
+      <c r="L126" s="15" t="n">
         <v>0.000505713983455992</v>
       </c>
-      <c r="M126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P126" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="16" t="n">
+      <c r="M126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="15" t="n">
         <v>0.0173207039333677</v>
       </c>
-      <c r="R126" s="16" t="n">
+      <c r="R126" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="C127" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D127" s="14" t="n">
+      <c r="D127" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" s="16" t="n">
+      <c r="G127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="15" t="n">
         <v>0.0112385368641709</v>
       </c>
-      <c r="I127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" s="16" t="n">
+      <c r="I127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="15" t="n">
         <v>0.000212448711988108</v>
       </c>
-      <c r="K127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" s="16" t="n">
+      <c r="K127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24383,27 +24358,27 @@
       <c r="C128" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D128" s="14" t="n">
+      <c r="D128" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
@@ -24415,27 +24390,27 @@
       <c r="C129" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D129" s="14" t="n">
+      <c r="D129" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
@@ -24447,25 +24422,25 @@
       <c r="C130" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D130" s="14" t="n">
+      <c r="D130" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F130" s="5"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
@@ -24477,25 +24452,25 @@
       <c r="C131" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D131" s="14" t="n">
+      <c r="D131" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F131" s="5"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="16"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
@@ -24507,25 +24482,25 @@
       <c r="C132" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D132" s="14" t="n">
+      <c r="D132" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
@@ -24537,23 +24512,23 @@
       <c r="C133" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D133" s="14"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F133" s="5"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
@@ -24565,25 +24540,25 @@
       <c r="C134" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D134" s="14" t="n">
+      <c r="D134" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F134" s="5"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
@@ -24595,25 +24570,25 @@
       <c r="C135" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D135" s="14" t="n">
+      <c r="D135" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F135" s="5"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
@@ -24625,25 +24600,25 @@
       <c r="C136" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D136" s="14" t="n">
+      <c r="D136" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
@@ -24655,23 +24630,23 @@
       <c r="C137" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D137" s="14"/>
+      <c r="D137" s="13"/>
       <c r="E137" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
@@ -24683,23 +24658,23 @@
       <c r="C138" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D138" s="14"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="16"/>
-      <c r="L138" s="16"/>
-      <c r="M138" s="16"/>
-      <c r="N138" s="16"/>
-      <c r="O138" s="16"/>
-      <c r="P138" s="16"/>
-      <c r="Q138" s="16"/>
-      <c r="R138" s="16"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
@@ -24711,23 +24686,23 @@
       <c r="C139" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D139" s="14"/>
+      <c r="D139" s="13"/>
       <c r="E139" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="16"/>
-      <c r="N139" s="16"/>
-      <c r="O139" s="16"/>
-      <c r="P139" s="16"/>
-      <c r="Q139" s="16"/>
-      <c r="R139" s="16"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
@@ -24739,25 +24714,25 @@
       <c r="C140" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D140" s="14"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="16"/>
-      <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="16"/>
-      <c r="R140" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
@@ -24769,23 +24744,23 @@
       <c r="C141" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D141" s="14"/>
+      <c r="D141" s="13"/>
       <c r="E141" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-      <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
-      <c r="Q141" s="16"/>
-      <c r="R141" s="16"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
@@ -24797,25 +24772,25 @@
       <c r="C142" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D142" s="14"/>
+      <c r="D142" s="13"/>
       <c r="E142" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="16"/>
-      <c r="O142" s="16"/>
-      <c r="P142" s="16"/>
-      <c r="Q142" s="16"/>
-      <c r="R142" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
@@ -24827,25 +24802,25 @@
       <c r="C143" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D143" s="14"/>
+      <c r="D143" s="13"/>
       <c r="E143" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="16"/>
-      <c r="L143" s="16"/>
-      <c r="M143" s="16"/>
-      <c r="N143" s="16"/>
-      <c r="O143" s="16"/>
-      <c r="P143" s="16"/>
-      <c r="Q143" s="16"/>
-      <c r="R143" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
@@ -24857,25 +24832,25 @@
       <c r="C144" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D144" s="14"/>
+      <c r="D144" s="13"/>
       <c r="E144" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="16"/>
-      <c r="O144" s="16"/>
-      <c r="P144" s="16"/>
-      <c r="Q144" s="16"/>
-      <c r="R144" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
@@ -24887,25 +24862,25 @@
       <c r="C145" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D145" s="14"/>
+      <c r="D145" s="13"/>
       <c r="E145" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="16"/>
-      <c r="O145" s="16"/>
-      <c r="P145" s="16"/>
-      <c r="Q145" s="16"/>
-      <c r="R145" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
@@ -24917,25 +24892,25 @@
       <c r="C146" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D146" s="14"/>
+      <c r="D146" s="13"/>
       <c r="E146" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
-      <c r="M146" s="16"/>
-      <c r="N146" s="16"/>
-      <c r="O146" s="16"/>
-      <c r="P146" s="16"/>
-      <c r="Q146" s="16"/>
-      <c r="R146" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
@@ -24947,25 +24922,25 @@
       <c r="C147" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D147" s="14"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="16"/>
-      <c r="L147" s="16"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="16"/>
-      <c r="O147" s="16"/>
-      <c r="P147" s="16"/>
-      <c r="Q147" s="16"/>
-      <c r="R147" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
@@ -24977,25 +24952,25 @@
       <c r="C148" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D148" s="14"/>
+      <c r="D148" s="13"/>
       <c r="E148" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-      <c r="M148" s="16"/>
-      <c r="N148" s="16"/>
-      <c r="O148" s="16"/>
-      <c r="P148" s="16"/>
-      <c r="Q148" s="16"/>
-      <c r="R148" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
@@ -25007,47 +24982,47 @@
       <c r="C149" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D149" s="14" t="n">
+      <c r="D149" s="13" t="n">
         <v>26752928</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" s="16" t="n">
+      <c r="G149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="15" t="n">
         <v>2.00829751133309</v>
       </c>
-      <c r="J149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" s="16" t="n">
+      <c r="J149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" s="15" t="n">
         <v>18140.9514198718</v>
       </c>
-      <c r="M149" s="16" t="n">
+      <c r="M149" s="15" t="n">
         <v>970.007697973882</v>
       </c>
-      <c r="N149" s="16" t="n">
+      <c r="N149" s="15" t="n">
         <v>11170.1507580346</v>
       </c>
-      <c r="O149" s="16" t="n">
+      <c r="O149" s="15" t="n">
         <v>44013.848258376</v>
       </c>
-      <c r="P149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" s="16" t="n">
+      <c r="P149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25061,47 +25036,47 @@
       <c r="C150" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D150" s="14" t="n">
+      <c r="D150" s="13" t="n">
         <v>116942393</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" s="16" t="n">
+      <c r="G150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" s="15" t="n">
         <v>0.330293326624169</v>
       </c>
-      <c r="L150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" s="16" t="n">
+      <c r="L150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="15" t="n">
         <v>17049.411227013</v>
       </c>
-      <c r="N150" s="16" t="n">
+      <c r="N150" s="15" t="n">
         <v>16812.9212051501</v>
       </c>
-      <c r="O150" s="16" t="n">
+      <c r="O150" s="15" t="n">
         <v>15755.6522666261</v>
       </c>
-      <c r="P150" s="16" t="n">
+      <c r="P150" s="15" t="n">
         <v>704.515665689353</v>
       </c>
-      <c r="Q150" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" s="16" t="n">
+      <c r="Q150" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25115,47 +25090,47 @@
       <c r="C151" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D151" s="14" t="n">
+      <c r="D151" s="13" t="n">
         <v>323561</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="16" t="n">
+      <c r="G151" s="15" t="n">
         <v>64.7754736970208</v>
       </c>
-      <c r="H151" s="16" t="n">
+      <c r="H151" s="15" t="n">
         <v>40.484671060638</v>
       </c>
-      <c r="I151" s="16" t="n">
+      <c r="I151" s="15" t="n">
         <v>2924.97699946003</v>
       </c>
-      <c r="J151" s="16" t="n">
+      <c r="J151" s="15" t="n">
         <v>39.8774009947284</v>
       </c>
-      <c r="K151" s="16" t="n">
+      <c r="K151" s="15" t="n">
         <v>109.308611863723</v>
       </c>
-      <c r="L151" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M151" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N151" s="16" t="n">
+      <c r="L151" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" s="15" t="n">
         <v>80.969342121276</v>
       </c>
-      <c r="O151" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P151" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R151" s="16" t="n">
+      <c r="O151" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25169,47 +25144,47 @@
       <c r="C152" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D152" s="14" t="n">
+      <c r="D152" s="13" t="n">
         <v>4993</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="G152" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" s="16" t="n">
+      <c r="G152" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="15" t="n">
         <v>18.1058528452674</v>
       </c>
-      <c r="I152" s="16" t="n">
+      <c r="I152" s="15" t="n">
         <v>4.48300916448821</v>
       </c>
-      <c r="J152" s="16" t="n">
+      <c r="J152" s="15" t="n">
         <v>4.41058575310714</v>
       </c>
-      <c r="K152" s="16" t="n">
+      <c r="K152" s="15" t="n">
         <v>1599.04374222377</v>
       </c>
-      <c r="L152" s="16" t="n">
+      <c r="L152" s="15" t="n">
         <v>1.21671331120197</v>
       </c>
-      <c r="M152" s="16" t="n">
+      <c r="M152" s="15" t="n">
         <v>2.48412301037069</v>
       </c>
-      <c r="N152" s="16" t="n">
+      <c r="N152" s="15" t="n">
         <v>2.58551578630419</v>
       </c>
-      <c r="O152" s="16" t="n">
+      <c r="O152" s="15" t="n">
         <v>0.659053043567734</v>
       </c>
-      <c r="P152" s="16" t="n">
+      <c r="P152" s="15" t="n">
         <v>8.35766167337544</v>
       </c>
-      <c r="Q152" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R152" s="16" t="n">
+      <c r="Q152" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25223,47 +25198,47 @@
       <c r="C153" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D153" s="14" t="n">
+      <c r="D153" s="13" t="n">
         <v>889720</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F153" s="5"/>
-      <c r="G153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" s="16" t="n">
+      <c r="G153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="15" t="n">
         <v>14.2882749058476</v>
       </c>
-      <c r="L153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N153" s="16" t="n">
+      <c r="L153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" s="15" t="n">
         <v>0.108975339992086</v>
       </c>
-      <c r="O153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P153" s="16" t="n">
+      <c r="O153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" s="15" t="n">
         <v>989.649724492722</v>
       </c>
-      <c r="Q153" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R153" s="16" t="n">
+      <c r="Q153" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25277,47 +25252,47 @@
       <c r="C154" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D154" s="14" t="n">
+      <c r="D154" s="13" t="n">
         <v>153655</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="G154" s="16" t="n">
+      <c r="G154" s="15" t="n">
         <v>0.0741738676702922</v>
       </c>
-      <c r="H154" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" s="16" t="n">
+      <c r="H154" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" s="15" t="n">
         <v>0.0222521603010877</v>
       </c>
-      <c r="J154" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" s="16" t="n">
+      <c r="J154" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="15" t="n">
         <v>4.12406704246825</v>
       </c>
-      <c r="L154" s="16" t="n">
+      <c r="L154" s="15" t="n">
         <v>0.00741738676702922</v>
       </c>
-      <c r="M154" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" s="16" t="n">
+      <c r="M154" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" s="15" t="n">
         <v>5.19217073692046</v>
       </c>
-      <c r="O154" s="16" t="n">
+      <c r="O154" s="15" t="n">
         <v>0.170599895641672</v>
       </c>
-      <c r="P154" s="16" t="n">
+      <c r="P154" s="15" t="n">
         <v>616.777961838781</v>
       </c>
-      <c r="Q154" s="16" t="n">
+      <c r="Q154" s="15" t="n">
         <v>86.6202426653673</v>
       </c>
-      <c r="R154" s="16" t="n">
+      <c r="R154" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25331,45 +25306,45 @@
       <c r="C155" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D155" s="14"/>
+      <c r="D155" s="13"/>
       <c r="E155" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" s="16" t="n">
+      <c r="G155" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="15" t="n">
         <v>2.28233519354472</v>
       </c>
-      <c r="I155" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" s="16" t="n">
+      <c r="I155" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="15" t="n">
         <v>60.8622718278591</v>
       </c>
-      <c r="L155" s="16" t="n">
+      <c r="L155" s="15" t="n">
         <v>23.5080524935106</v>
       </c>
-      <c r="M155" s="16" t="n">
+      <c r="M155" s="15" t="n">
         <v>83.6856237633062</v>
       </c>
-      <c r="N155" s="16" t="n">
+      <c r="N155" s="15" t="n">
         <v>27.6923336816759</v>
       </c>
-      <c r="O155" s="16" t="n">
+      <c r="O155" s="15" t="n">
         <v>163.795589056726</v>
       </c>
-      <c r="P155" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q155" s="16" t="n">
+      <c r="P155" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="15" t="n">
         <v>47.5486498655149</v>
       </c>
-      <c r="R155" s="16" t="n">
+      <c r="R155" s="15" t="n">
         <v>25.1056871289919</v>
       </c>
     </row>
@@ -25378,52 +25353,52 @@
         <v>349</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D156" s="14" t="n">
+      <c r="D156" s="13" t="n">
         <v>2593</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="16" t="n">
+      <c r="G156" s="15" t="n">
         <v>0.0632407128143357</v>
       </c>
-      <c r="H156" s="16" t="n">
+      <c r="H156" s="15" t="n">
         <v>2.08694352287308</v>
       </c>
-      <c r="I156" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" s="16" t="n">
+      <c r="I156" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="15" t="n">
         <v>31.6203564071678</v>
       </c>
-      <c r="K156" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M156" s="16" t="n">
+      <c r="K156" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" s="15" t="n">
         <v>0.632407128143357</v>
       </c>
-      <c r="N156" s="16" t="n">
+      <c r="N156" s="15" t="n">
         <v>347.887161191661</v>
       </c>
-      <c r="O156" s="16" t="n">
+      <c r="O156" s="15" t="n">
         <v>6.76675627113392</v>
       </c>
-      <c r="P156" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="16" t="n">
+      <c r="P156" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="15" t="n">
         <v>1.20157354347238</v>
       </c>
-      <c r="R156" s="16" t="n">
+      <c r="R156" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25437,47 +25412,47 @@
       <c r="C157" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D157" s="14" t="n">
+      <c r="D157" s="13" t="n">
         <v>65438</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F157" s="5"/>
-      <c r="G157" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" s="16" t="n">
+      <c r="G157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="15" t="n">
         <v>2.42194573552828</v>
       </c>
-      <c r="K157" s="16" t="n">
+      <c r="K157" s="15" t="n">
         <v>0.216245154957882</v>
       </c>
-      <c r="L157" s="16" t="n">
+      <c r="L157" s="15" t="n">
         <v>1.38396899173044</v>
       </c>
-      <c r="M157" s="16" t="n">
+      <c r="M157" s="15" t="n">
         <v>0.0864980619831528</v>
       </c>
-      <c r="N157" s="16" t="n">
+      <c r="N157" s="15" t="n">
         <v>30.5770649110445</v>
       </c>
-      <c r="O157" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" s="16" t="n">
+      <c r="O157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" s="15" t="n">
         <v>18.5105852643947</v>
       </c>
-      <c r="Q157" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" s="16" t="n">
+      <c r="Q157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25491,47 +25466,47 @@
       <c r="C158" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D158" s="14" t="n">
+      <c r="D158" s="13" t="n">
         <v>29676</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F158" s="5"/>
-      <c r="G158" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" s="16" t="n">
+      <c r="G158" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="15" t="n">
         <v>0.294352014019099</v>
       </c>
-      <c r="L158" s="16" t="n">
+      <c r="L158" s="15" t="n">
         <v>0.209354206272474</v>
       </c>
-      <c r="M158" s="16" t="n">
+      <c r="M158" s="15" t="n">
         <v>0.0378931113353179</v>
       </c>
-      <c r="N158" s="16" t="n">
+      <c r="N158" s="15" t="n">
         <v>0.00125612523763485</v>
       </c>
-      <c r="O158" s="16" t="n">
+      <c r="O158" s="15" t="n">
         <v>0.0299376514969639</v>
       </c>
-      <c r="P158" s="16" t="n">
+      <c r="P158" s="15" t="n">
         <v>0.00544320936308434</v>
       </c>
-      <c r="Q158" s="16" t="n">
+      <c r="Q158" s="15" t="n">
         <v>1.64730357205497</v>
       </c>
-      <c r="R158" s="16" t="n">
+      <c r="R158" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25545,47 +25520,47 @@
       <c r="C159" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D159" s="14" t="n">
+      <c r="D159" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="16" t="n">
+      <c r="G159" s="15" t="n">
         <v>0.239385863411695</v>
       </c>
-      <c r="H159" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" s="16" t="n">
+      <c r="H159" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="15" t="n">
         <v>0.0404320341249203</v>
       </c>
-      <c r="J159" s="16" t="n">
+      <c r="J159" s="15" t="n">
         <v>0.0661316632793055</v>
       </c>
-      <c r="K159" s="16" t="n">
+      <c r="K159" s="15" t="n">
         <v>0.0531107041209</v>
       </c>
-      <c r="L159" s="16" t="n">
+      <c r="L159" s="15" t="n">
         <v>0.0126786699959797</v>
       </c>
-      <c r="M159" s="16" t="n">
+      <c r="M159" s="15" t="n">
         <v>0.00678989930363209</v>
       </c>
-      <c r="N159" s="16" t="n">
+      <c r="N159" s="15" t="n">
         <v>0.453002242737898</v>
       </c>
-      <c r="O159" s="16" t="n">
+      <c r="O159" s="15" t="n">
         <v>0.0152283749813971</v>
       </c>
-      <c r="P159" s="16" t="n">
+      <c r="P159" s="15" t="n">
         <v>0.104677614264328</v>
       </c>
-      <c r="Q159" s="16" t="n">
+      <c r="Q159" s="15" t="n">
         <v>0.414051133152453</v>
       </c>
-      <c r="R159" s="16" t="n">
+      <c r="R159" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25599,47 +25574,47 @@
       <c r="C160" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D160" s="14"/>
+      <c r="D160" s="13"/>
       <c r="E160" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" s="16" t="n">
+        <v>373</v>
+      </c>
+      <c r="G160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" s="15" t="n">
         <v>0.13037685191903</v>
       </c>
-      <c r="L160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" s="16" t="n">
+      <c r="L160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" s="15" t="n">
         <v>0.110073448950549</v>
       </c>
-      <c r="N160" s="16" t="n">
+      <c r="N160" s="15" t="n">
         <v>0.565594796979105</v>
       </c>
-      <c r="O160" s="16" t="n">
+      <c r="O160" s="15" t="n">
         <v>0.436088090901582</v>
       </c>
-      <c r="P160" s="16" t="n">
+      <c r="P160" s="15" t="n">
         <v>0.0378513441055247</v>
       </c>
-      <c r="Q160" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R160" s="16" t="n">
+      <c r="Q160" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25653,49 +25628,49 @@
       <c r="C161" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D161" s="14" t="n">
+      <c r="D161" s="13" t="n">
         <v>8679</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G161" s="16" t="n">
+        <v>373</v>
+      </c>
+      <c r="G161" s="15" t="n">
         <v>5.54979035564333E-007</v>
       </c>
-      <c r="H161" s="16" t="n">
+      <c r="H161" s="15" t="n">
         <v>3.88485324895033E-006</v>
       </c>
-      <c r="I161" s="16" t="n">
+      <c r="I161" s="15" t="n">
         <v>0.000169546095364904</v>
       </c>
-      <c r="J161" s="16" t="n">
+      <c r="J161" s="15" t="n">
         <v>0.000215331865798961</v>
       </c>
-      <c r="K161" s="16" t="n">
+      <c r="K161" s="15" t="n">
         <v>5.49429245208689E-005</v>
       </c>
-      <c r="L161" s="16" t="n">
+      <c r="L161" s="15" t="n">
         <v>0.000415679297637685</v>
       </c>
-      <c r="M161" s="16" t="n">
+      <c r="M161" s="15" t="n">
         <v>0.00506057633579337</v>
       </c>
-      <c r="N161" s="16" t="n">
+      <c r="N161" s="15" t="n">
         <v>0.30604207920388</v>
       </c>
-      <c r="O161" s="16" t="n">
+      <c r="O161" s="15" t="n">
         <v>0.00257482523550072</v>
       </c>
-      <c r="P161" s="16" t="n">
+      <c r="P161" s="15" t="n">
         <v>0.000124037814448628</v>
       </c>
-      <c r="Q161" s="16" t="n">
+      <c r="Q161" s="15" t="n">
         <v>6.93723794455416E-006</v>
       </c>
-      <c r="R161" s="16" t="n">
+      <c r="R161" s="15" t="n">
         <v>2.77489517782166E-007</v>
       </c>
     </row>
@@ -25709,49 +25684,49 @@
       <c r="C162" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D162" s="14" t="n">
+      <c r="D162" s="13" t="n">
         <v>0</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G162" s="16" t="n">
+        <v>373</v>
+      </c>
+      <c r="G162" s="15" t="n">
         <v>0.0187905702953517</v>
       </c>
-      <c r="H162" s="16" t="n">
+      <c r="H162" s="15" t="n">
         <v>0.00228818953652712</v>
       </c>
-      <c r="I162" s="16" t="n">
+      <c r="I162" s="15" t="n">
         <v>0.0596417247091208</v>
       </c>
-      <c r="J162" s="16" t="n">
+      <c r="J162" s="15" t="n">
         <v>7.02976816137364E-005</v>
       </c>
-      <c r="K162" s="16" t="n">
+      <c r="K162" s="15" t="n">
         <v>0.000913869860978573</v>
       </c>
-      <c r="L162" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M162" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O162" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" s="16" t="n">
+      <c r="L162" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" s="15" t="n">
         <v>0.00158404109236286</v>
       </c>
-      <c r="Q162" s="16" t="n">
+      <c r="Q162" s="15" t="n">
         <v>0.00030930979910044</v>
       </c>
-      <c r="R162" s="16" t="n">
+      <c r="R162" s="15" t="n">
         <v>0.000182773972195715</v>
       </c>
     </row>
@@ -25765,47 +25740,47 @@
       <c r="C163" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D163" s="17" t="n">
+      <c r="D163" s="16" t="n">
         <v>268803256</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="16" t="n">
+      <c r="G163" s="15" t="n">
         <v>11375.084092059</v>
       </c>
-      <c r="H163" s="16" t="n">
+      <c r="H163" s="15" t="n">
         <v>9305.91084952834</v>
       </c>
-      <c r="I163" s="16" t="n">
+      <c r="I163" s="15" t="n">
         <v>5359.13825398529</v>
       </c>
-      <c r="J163" s="16" t="n">
+      <c r="J163" s="15" t="n">
         <v>1200.96607898558</v>
       </c>
-      <c r="K163" s="16" t="n">
+      <c r="K163" s="15" t="n">
         <v>176.541412311792</v>
       </c>
-      <c r="L163" s="16" t="n">
+      <c r="L163" s="15" t="n">
         <v>1879.4376102251</v>
       </c>
-      <c r="M163" s="16" t="n">
+      <c r="M163" s="15" t="n">
         <v>77514.5478053655</v>
       </c>
-      <c r="N163" s="16" t="n">
+      <c r="N163" s="15" t="n">
         <v>45101.0565936603</v>
       </c>
-      <c r="O163" s="16" t="n">
+      <c r="O163" s="15" t="n">
         <v>43754.3184357076</v>
       </c>
-      <c r="P163" s="16" t="n">
+      <c r="P163" s="15" t="n">
         <v>90771.7667635598</v>
       </c>
-      <c r="Q163" s="16" t="n">
+      <c r="Q163" s="15" t="n">
         <v>135516.991736764</v>
       </c>
-      <c r="R163" s="16" t="n">
+      <c r="R163" s="15" t="n">
         <v>143008.388097625</v>
       </c>
     </row>
@@ -25819,47 +25794,47 @@
       <c r="C164" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="14" t="n">
+      <c r="D164" s="13" t="n">
         <v>15212648</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F164" s="5"/>
-      <c r="G164" s="16" t="n">
+      <c r="G164" s="15" t="n">
         <v>2.81042347642425</v>
       </c>
-      <c r="H164" s="16" t="n">
+      <c r="H164" s="15" t="n">
         <v>0.910929156262741</v>
       </c>
-      <c r="I164" s="16" t="n">
+      <c r="I164" s="15" t="n">
         <v>10.3514676848039</v>
       </c>
-      <c r="J164" s="16" t="n">
+      <c r="J164" s="15" t="n">
         <v>43.3208922609042</v>
       </c>
-      <c r="K164" s="16" t="n">
+      <c r="K164" s="15" t="n">
         <v>1745.81125517907</v>
       </c>
-      <c r="L164" s="16" t="n">
+      <c r="L164" s="15" t="n">
         <v>16.0603021129732</v>
       </c>
-      <c r="M164" s="16" t="n">
+      <c r="M164" s="15" t="n">
         <v>3894.76559507667</v>
       </c>
-      <c r="N164" s="16" t="n">
+      <c r="N164" s="15" t="n">
         <v>2709.45008489283</v>
       </c>
-      <c r="O164" s="16" t="n">
+      <c r="O164" s="15" t="n">
         <v>6869.09938655595</v>
       </c>
-      <c r="P164" s="16" t="n">
+      <c r="P164" s="15" t="n">
         <v>5162.91354967431</v>
       </c>
-      <c r="Q164" s="16" t="n">
+      <c r="Q164" s="15" t="n">
         <v>10756.1531382074</v>
       </c>
-      <c r="R164" s="16" t="n">
+      <c r="R164" s="15" t="n">
         <v>2386.54640193306</v>
       </c>
     </row>
@@ -25873,47 +25848,47 @@
       <c r="C165" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D165" s="14" t="n">
+      <c r="D165" s="13" t="n">
         <v>3739316</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F165" s="5"/>
-      <c r="G165" s="16" t="n">
+      <c r="G165" s="15" t="n">
         <v>26.5534726036818</v>
       </c>
-      <c r="H165" s="16" t="n">
+      <c r="H165" s="15" t="n">
         <v>5.07201162092799</v>
       </c>
-      <c r="I165" s="16" t="n">
+      <c r="I165" s="15" t="n">
         <v>5.51954205806869</v>
       </c>
-      <c r="J165" s="16" t="n">
+      <c r="J165" s="15" t="n">
         <v>3195.41704678876</v>
       </c>
-      <c r="K165" s="16" t="n">
+      <c r="K165" s="15" t="n">
         <v>6736.07896302951</v>
       </c>
-      <c r="L165" s="16" t="n">
+      <c r="L165" s="15" t="n">
         <v>1.34259131142211</v>
       </c>
-      <c r="M165" s="16" t="n">
+      <c r="M165" s="15" t="n">
         <v>3654.08601925385</v>
       </c>
-      <c r="N165" s="16" t="n">
+      <c r="N165" s="15" t="n">
         <v>12.3816754275595</v>
       </c>
-      <c r="O165" s="16" t="n">
+      <c r="O165" s="15" t="n">
         <v>243.904088241684</v>
       </c>
-      <c r="P165" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" s="16" t="n">
+      <c r="P165" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25927,79 +25902,79 @@
       <c r="C166" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D166" s="14" t="n">
+      <c r="D166" s="13" t="n">
         <v>1980</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F166" s="5"/>
-      <c r="G166" s="16" t="n">
+      <c r="G166" s="15" t="n">
         <v>0.0842113604169295</v>
       </c>
-      <c r="H166" s="16" t="n">
+      <c r="H166" s="15" t="n">
         <v>0.0249340899558506</v>
       </c>
-      <c r="I166" s="16" t="n">
+      <c r="I166" s="15" t="n">
         <v>0.485038617820415</v>
       </c>
-      <c r="J166" s="16" t="n">
+      <c r="J166" s="15" t="n">
         <v>0.0672749974280498</v>
       </c>
-      <c r="K166" s="16" t="n">
+      <c r="K166" s="15" t="n">
         <v>0.454929528062407</v>
       </c>
-      <c r="L166" s="16" t="n">
+      <c r="L166" s="15" t="n">
         <v>4.07978166221013</v>
       </c>
-      <c r="M166" s="16" t="n">
+      <c r="M166" s="15" t="n">
         <v>1.35867267533013</v>
       </c>
-      <c r="N166" s="16" t="n">
+      <c r="N166" s="15" t="n">
         <v>0.376363621975104</v>
       </c>
-      <c r="O166" s="16" t="n">
+      <c r="O166" s="15" t="n">
         <v>0.198531810591867</v>
       </c>
-      <c r="P166" s="16" t="n">
+      <c r="P166" s="15" t="n">
         <v>0.111497723010125</v>
       </c>
-      <c r="Q166" s="16" t="n">
+      <c r="Q166" s="15" t="n">
         <v>0.26862953518473</v>
       </c>
-      <c r="R166" s="16" t="n">
+      <c r="R166" s="15" t="n">
         <v>0.00517499980215768</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="C167" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D167" s="13"/>
+      <c r="E167" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="F167" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="16"/>
-      <c r="L167" s="16"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="16"/>
-      <c r="P167" s="16"/>
-      <c r="Q167" s="16"/>
-      <c r="R167" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+      <c r="R167" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:R167">
